--- a/Documents/Risk Management.xlsx
+++ b/Documents/Risk Management.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Risk Type</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>Team to spend more time on current tasks to get back on track or research more to resolve hardware issues</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>Impact</t>
+  </si>
+  <si>
+    <t>Medium</t>
   </si>
 </sst>
 </file>
@@ -444,20 +453,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D3:F7"/>
+  <dimension ref="C3:H7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="1.90625" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.08984375" customWidth="1"/>
-    <col min="6" max="6" width="36.7265625" customWidth="1"/>
+    <col min="5" max="7" width="29.08984375" customWidth="1"/>
+    <col min="8" max="8" width="36.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,43 +477,55 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="4:6" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="4:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="4:6" ht="96.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="4:8" ht="96.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="4:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="4:8" ht="58" x14ac:dyDescent="0.35">
       <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="4:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="7" spans="4:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
@@ -509,6 +533,10 @@
         <v>7</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
